--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_ATVietNam.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>125.212.203.114,15959</t>
   </si>
   <si>
-    <t>Thiết bị mất tín hiệu GSM</t>
-  </si>
-  <si>
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>202208120945939</t>
+  </si>
+  <si>
+    <t>862846048282084</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
   </si>
 </sst>
 </file>
@@ -685,6 +688,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,32 +727,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,43 +1072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1150,58 +1153,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1226,23 +1229,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1256,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="54">
-        <v>44784</v>
+        <v>44789</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
@@ -1266,14 +1269,14 @@
         <v>64</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>66</v>
@@ -1283,10 +1286,10 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1312,7 +1315,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="54">
-        <v>44784</v>
+        <v>44789</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
@@ -1326,36 +1329,36 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>77</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>44781</v>
       </c>
       <c r="C8" s="54">
-        <v>44784</v>
+        <v>44789</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
@@ -1382,7 +1385,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>67</v>
@@ -1393,14 +1396,14 @@
       </c>
       <c r="L8" s="62"/>
       <c r="M8" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>19</v>
@@ -1410,7 +1413,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1529,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1557,7 +1560,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3360,6 +3363,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3371,13 +3381,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3389,7 +3392,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3421,43 +3424,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3502,58 +3505,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3578,23 +3581,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,7 +3607,9 @@
       <c r="B6" s="54">
         <v>44781</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44789</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -3627,14 +3632,14 @@
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>18</v>
@@ -3644,7 +3649,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3659,7 +3664,9 @@
       <c r="B7" s="54">
         <v>44781</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44789</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
@@ -3672,7 +3679,7 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55" t="s">
@@ -3680,14 +3687,14 @@
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>19</v>
@@ -3697,7 +3704,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3710,7 +3717,9 @@
       <c r="B8" s="54">
         <v>44781</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44789</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>65</v>
       </c>
@@ -3721,28 +3730,40 @@
       <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="58" t="s">
+        <v>88</v>
+      </c>
       <c r="I8" s="51" t="s">
         <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K8" s="55" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="N8" s="1">
+        <v>275000</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3771,7 +3792,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3800,7 +3821,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3829,7 +3850,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3858,7 +3879,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3889,7 +3910,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3918,7 +3939,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3947,7 +3968,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3976,7 +3997,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4126,7 +4147,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4307,7 +4328,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -4627,7 +4648,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5692,13 +5713,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5710,6 +5724,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5753,43 +5774,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5834,58 +5855,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -5910,23 +5931,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="71"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="77"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5973,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5983,7 +6004,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6012,7 +6033,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6041,7 +6062,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6070,7 +6091,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6099,7 +6120,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6128,7 +6149,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6159,7 +6180,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6188,7 +6209,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6217,7 +6238,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6246,7 +6267,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7477,6 +7498,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7488,13 +7516,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
